--- a/biology/Médecine/Pôle_d'activité_de_soins_adaptés/Pôle_d'activité_de_soins_adaptés.xlsx
+++ b/biology/Médecine/Pôle_d'activité_de_soins_adaptés/Pôle_d'activité_de_soins_adaptés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%B4le_d%27activit%C3%A9_de_soins_adapt%C3%A9s</t>
+          <t>Pôle_d'activité_de_soins_adaptés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Pôle d'activité de soins adaptés ou PASA est un espace aménagé dans certains EHPAD destiné à l'accueil de résidents atteints de maladie neurodégénérative durant la journée contrairement à l'unité d'hébergement renforcé qui accueille jour et nuit les résidents[1]. Les résidents venant au PASA ont des troubles cognitifs modérés. Ce pôle agit comme un Hôpital de jour[2]. 
-Le PASA peut accueillir jusqu'à 14 résidents maximum[1]. 
-L'équipe soignante est composée d'un médecin gériatre, d'infirmières, d'assistantes de soins en gérontologie ou aides-soignantes, d'une ergothérapeute, d'une psychologue[2].
-Le PASA propose des activités thérapeutiques aux résidents permettant aux résidents de se sentir comme à la maison[2]. 
-Les activités peuvent être cuisine, préparer la table, le jardinage... mais aussi le chant, la réminiscence, la peinture[2]...
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pôle d'activité de soins adaptés ou PASA est un espace aménagé dans certains EHPAD destiné à l'accueil de résidents atteints de maladie neurodégénérative durant la journée contrairement à l'unité d'hébergement renforcé qui accueille jour et nuit les résidents. Les résidents venant au PASA ont des troubles cognitifs modérés. Ce pôle agit comme un Hôpital de jour. 
+Le PASA peut accueillir jusqu'à 14 résidents maximum. 
+L'équipe soignante est composée d'un médecin gériatre, d'infirmières, d'assistantes de soins en gérontologie ou aides-soignantes, d'une ergothérapeute, d'une psychologue.
+Le PASA propose des activités thérapeutiques aux résidents permettant aux résidents de se sentir comme à la maison. 
+Les activités peuvent être cuisine, préparer la table, le jardinage... mais aussi le chant, la réminiscence, la peinture...
 </t>
         </is>
       </c>
